--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il16-Cd4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il16-Cd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.45580320324174</v>
+        <v>3.473752</v>
       </c>
       <c r="H2">
-        <v>3.45580320324174</v>
+        <v>10.421256</v>
       </c>
       <c r="I2">
-        <v>0.3014586858926238</v>
+        <v>0.2912886159317403</v>
       </c>
       <c r="J2">
-        <v>0.3014586858926238</v>
+        <v>0.2912886159317402</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>7.00189393751713</v>
+        <v>0.9211239999999999</v>
       </c>
       <c r="N2">
-        <v>7.00189393751713</v>
+        <v>2.763372</v>
       </c>
       <c r="O2">
-        <v>0.9524196981155163</v>
+        <v>0.08178337750955046</v>
       </c>
       <c r="P2">
-        <v>0.9524196981155163</v>
+        <v>0.08178337750955048</v>
       </c>
       <c r="Q2">
-        <v>24.19716749803062</v>
+        <v>3.199756337248</v>
       </c>
       <c r="R2">
-        <v>24.19716749803062</v>
+        <v>28.797807035232</v>
       </c>
       <c r="S2">
-        <v>0.287115190612153</v>
+        <v>0.02382256684097997</v>
       </c>
       <c r="T2">
-        <v>0.287115190612153</v>
+        <v>0.02382256684097997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.45580320324174</v>
+        <v>3.473752</v>
       </c>
       <c r="H3">
-        <v>3.45580320324174</v>
+        <v>10.421256</v>
       </c>
       <c r="I3">
-        <v>0.3014586858926238</v>
+        <v>0.2912886159317403</v>
       </c>
       <c r="J3">
-        <v>0.3014586858926238</v>
+        <v>0.2912886159317402</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.349795607933546</v>
+        <v>7.177985</v>
       </c>
       <c r="N3">
-        <v>0.349795607933546</v>
+        <v>21.533955</v>
       </c>
       <c r="O3">
-        <v>0.04758030188448372</v>
+        <v>0.6373081767632703</v>
       </c>
       <c r="P3">
-        <v>0.04758030188448372</v>
+        <v>0.6373081767632703</v>
       </c>
       <c r="Q3">
-        <v>1.20882478237664</v>
+        <v>24.93453974972</v>
       </c>
       <c r="R3">
-        <v>1.20882478237664</v>
+        <v>224.41085774748</v>
       </c>
       <c r="S3">
-        <v>0.0143434952804708</v>
+        <v>0.1856406167313539</v>
       </c>
       <c r="T3">
-        <v>0.0143434952804708</v>
+        <v>0.1856406167313538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.99529315521051</v>
+        <v>3.473752</v>
       </c>
       <c r="H4">
-        <v>2.99529315521051</v>
+        <v>10.421256</v>
       </c>
       <c r="I4">
-        <v>0.261287198757703</v>
+        <v>0.2912886159317403</v>
       </c>
       <c r="J4">
-        <v>0.261287198757703</v>
+        <v>0.2912886159317402</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.00189393751713</v>
+        <v>0.370797</v>
       </c>
       <c r="N4">
-        <v>7.00189393751713</v>
+        <v>1.112391</v>
       </c>
       <c r="O4">
-        <v>0.9524196981155163</v>
+        <v>0.03292176843770089</v>
       </c>
       <c r="P4">
-        <v>0.9524196981155163</v>
+        <v>0.03292176843770089</v>
       </c>
       <c r="Q4">
-        <v>20.97272498455503</v>
+        <v>1.288056820344</v>
       </c>
       <c r="R4">
-        <v>20.97272498455503</v>
+        <v>11.592511383096</v>
       </c>
       <c r="S4">
-        <v>0.2488550749622604</v>
+        <v>0.009589736362243143</v>
       </c>
       <c r="T4">
-        <v>0.2488550749622604</v>
+        <v>0.00958973636224314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.99529315521051</v>
+        <v>3.473752</v>
       </c>
       <c r="H5">
-        <v>2.99529315521051</v>
+        <v>10.421256</v>
       </c>
       <c r="I5">
-        <v>0.261287198757703</v>
+        <v>0.2912886159317403</v>
       </c>
       <c r="J5">
-        <v>0.261287198757703</v>
+        <v>0.2912886159317402</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.349795607933546</v>
+        <v>2.512708666666667</v>
       </c>
       <c r="N5">
-        <v>0.349795607933546</v>
+        <v>7.538126</v>
       </c>
       <c r="O5">
-        <v>0.04758030188448372</v>
+        <v>0.2230946120799363</v>
       </c>
       <c r="P5">
-        <v>0.04758030188448372</v>
+        <v>0.2230946120799363</v>
       </c>
       <c r="Q5">
-        <v>1.04774039016605</v>
+        <v>8.728526756250666</v>
       </c>
       <c r="R5">
-        <v>1.04774039016605</v>
+        <v>78.556740806256</v>
       </c>
       <c r="S5">
-        <v>0.01243212379544261</v>
+        <v>0.06498492077459314</v>
       </c>
       <c r="T5">
-        <v>0.01243212379544261</v>
+        <v>0.06498492077459313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.6308033199393</v>
+        <v>3.473752</v>
       </c>
       <c r="H6">
-        <v>1.6308033199393</v>
+        <v>10.421256</v>
       </c>
       <c r="I6">
-        <v>0.1422592077341274</v>
+        <v>0.2912886159317403</v>
       </c>
       <c r="J6">
-        <v>0.1422592077341274</v>
+        <v>0.2912886159317402</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>7.00189393751713</v>
+        <v>0.2803586666666666</v>
       </c>
       <c r="N6">
-        <v>7.00189393751713</v>
+        <v>0.8410759999999999</v>
       </c>
       <c r="O6">
-        <v>0.9524196981155163</v>
+        <v>0.02489206520954206</v>
       </c>
       <c r="P6">
-        <v>0.9524196981155163</v>
+        <v>0.02489206520954206</v>
       </c>
       <c r="Q6">
-        <v>11.41871187916579</v>
+        <v>0.9738964790506666</v>
       </c>
       <c r="R6">
-        <v>11.41871187916579</v>
+        <v>8.765068311455998</v>
       </c>
       <c r="S6">
-        <v>0.1354904716842901</v>
+        <v>0.007250775222570132</v>
       </c>
       <c r="T6">
-        <v>0.1354904716842901</v>
+        <v>0.00725077522257013</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.6308033199393</v>
+        <v>3.016808666666666</v>
       </c>
       <c r="H7">
-        <v>1.6308033199393</v>
+        <v>9.050426</v>
       </c>
       <c r="I7">
-        <v>0.1422592077341274</v>
+        <v>0.2529720086650434</v>
       </c>
       <c r="J7">
-        <v>0.1422592077341274</v>
+        <v>0.2529720086650434</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.349795607933546</v>
+        <v>0.9211239999999999</v>
       </c>
       <c r="N7">
-        <v>0.349795607933546</v>
+        <v>2.763372</v>
       </c>
       <c r="O7">
-        <v>0.04758030188448372</v>
+        <v>0.08178337750955046</v>
       </c>
       <c r="P7">
-        <v>0.04758030188448372</v>
+        <v>0.08178337750955048</v>
       </c>
       <c r="Q7">
-        <v>0.5704478387182126</v>
+        <v>2.778854866274666</v>
       </c>
       <c r="R7">
-        <v>0.5704478387182126</v>
+        <v>25.009693796472</v>
       </c>
       <c r="S7">
-        <v>0.006768736049837263</v>
+        <v>0.02068890528400252</v>
       </c>
       <c r="T7">
-        <v>0.006768736049837263</v>
+        <v>0.02068890528400252</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.25555816618044</v>
+        <v>3.016808666666666</v>
       </c>
       <c r="H8">
-        <v>3.25555816618044</v>
+        <v>9.050426</v>
       </c>
       <c r="I8">
-        <v>0.283990791403611</v>
+        <v>0.2529720086650434</v>
       </c>
       <c r="J8">
-        <v>0.283990791403611</v>
+        <v>0.2529720086650434</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.00189393751713</v>
+        <v>7.177985</v>
       </c>
       <c r="N8">
-        <v>7.00189393751713</v>
+        <v>21.533955</v>
       </c>
       <c r="O8">
-        <v>0.9524196981155163</v>
+        <v>0.6373081767632703</v>
       </c>
       <c r="P8">
-        <v>0.9524196981155163</v>
+        <v>0.6373081767632703</v>
       </c>
       <c r="Q8">
-        <v>22.79507298701321</v>
+        <v>21.65460735720333</v>
       </c>
       <c r="R8">
-        <v>22.79507298701321</v>
+        <v>194.89146621483</v>
       </c>
       <c r="S8">
-        <v>0.2704784238162137</v>
+        <v>0.1612211296144611</v>
       </c>
       <c r="T8">
-        <v>0.2704784238162137</v>
+        <v>0.1612211296144611</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.25555816618044</v>
+        <v>3.016808666666666</v>
       </c>
       <c r="H9">
-        <v>3.25555816618044</v>
+        <v>9.050426</v>
       </c>
       <c r="I9">
-        <v>0.283990791403611</v>
+        <v>0.2529720086650434</v>
       </c>
       <c r="J9">
-        <v>0.283990791403611</v>
+        <v>0.2529720086650434</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.349795607933546</v>
+        <v>0.370797</v>
       </c>
       <c r="N9">
-        <v>0.349795607933546</v>
+        <v>1.112391</v>
       </c>
       <c r="O9">
-        <v>0.04758030188448372</v>
+        <v>0.03292176843770089</v>
       </c>
       <c r="P9">
-        <v>0.04758030188448372</v>
+        <v>0.03292176843770089</v>
       </c>
       <c r="Q9">
-        <v>1.138779947902107</v>
+        <v>1.118623603174</v>
       </c>
       <c r="R9">
-        <v>1.138779947902107</v>
+        <v>10.067612428566</v>
       </c>
       <c r="S9">
-        <v>0.01351236758739725</v>
+        <v>0.008328285890490622</v>
       </c>
       <c r="T9">
-        <v>0.01351236758739725</v>
+        <v>0.008328285890490622</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,1047 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.126146838136201</v>
+        <v>3.016808666666666</v>
       </c>
       <c r="H10">
-        <v>0.126146838136201</v>
+        <v>9.050426</v>
       </c>
       <c r="I10">
-        <v>0.01100411621193481</v>
+        <v>0.2529720086650434</v>
       </c>
       <c r="J10">
-        <v>0.01100411621193481</v>
+        <v>0.2529720086650434</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>7.00189393751713</v>
+        <v>2.512708666666667</v>
       </c>
       <c r="N10">
-        <v>7.00189393751713</v>
+        <v>7.538126</v>
       </c>
       <c r="O10">
-        <v>0.9524196981155163</v>
+        <v>0.2230946120799363</v>
       </c>
       <c r="P10">
-        <v>0.9524196981155163</v>
+        <v>0.2230946120799363</v>
       </c>
       <c r="Q10">
-        <v>0.8832667811828204</v>
+        <v>7.580361282408444</v>
       </c>
       <c r="R10">
-        <v>0.8832667811828204</v>
+        <v>68.22325154167601</v>
       </c>
       <c r="S10">
-        <v>0.01048053704059901</v>
+        <v>0.05643669214021015</v>
       </c>
       <c r="T10">
-        <v>0.01048053704059901</v>
+        <v>0.05643669214021015</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.016808666666666</v>
+      </c>
+      <c r="H11">
+        <v>9.050426</v>
+      </c>
+      <c r="I11">
+        <v>0.2529720086650434</v>
+      </c>
+      <c r="J11">
+        <v>0.2529720086650434</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.2803586666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.8410759999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.02489206520954206</v>
+      </c>
+      <c r="P11">
+        <v>0.02489206520954206</v>
+      </c>
+      <c r="Q11">
+        <v>0.8457884553751109</v>
+      </c>
+      <c r="R11">
+        <v>7.612096098375999</v>
+      </c>
+      <c r="S11">
+        <v>0.0062969957358791</v>
+      </c>
+      <c r="T11">
+        <v>0.0062969957358791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.126146838136201</v>
-      </c>
-      <c r="H11">
-        <v>0.126146838136201</v>
-      </c>
-      <c r="I11">
-        <v>0.01100411621193481</v>
-      </c>
-      <c r="J11">
-        <v>0.01100411621193481</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.349795607933546</v>
-      </c>
-      <c r="N11">
-        <v>0.349795607933546</v>
-      </c>
-      <c r="O11">
-        <v>0.04758030188448372</v>
-      </c>
-      <c r="P11">
-        <v>0.04758030188448372</v>
-      </c>
-      <c r="Q11">
-        <v>0.04412560993474706</v>
-      </c>
-      <c r="R11">
-        <v>0.04412560993474706</v>
-      </c>
-      <c r="S11">
-        <v>0.0005235791713357996</v>
-      </c>
-      <c r="T11">
-        <v>0.0005235791713357996</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.631845666666667</v>
+      </c>
+      <c r="H12">
+        <v>4.895537</v>
+      </c>
+      <c r="I12">
+        <v>0.136837075777874</v>
+      </c>
+      <c r="J12">
+        <v>0.136837075777874</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.9211239999999999</v>
+      </c>
+      <c r="N12">
+        <v>2.763372</v>
+      </c>
+      <c r="O12">
+        <v>0.08178337750955046</v>
+      </c>
+      <c r="P12">
+        <v>0.08178337750955048</v>
+      </c>
+      <c r="Q12">
+        <v>1.503132207862667</v>
+      </c>
+      <c r="R12">
+        <v>13.528189870764</v>
+      </c>
+      <c r="S12">
+        <v>0.01119099822564483</v>
+      </c>
+      <c r="T12">
+        <v>0.01119099822564483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.631845666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.895537</v>
+      </c>
+      <c r="I13">
+        <v>0.136837075777874</v>
+      </c>
+      <c r="J13">
+        <v>0.136837075777874</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.177985</v>
+      </c>
+      <c r="N13">
+        <v>21.533955</v>
+      </c>
+      <c r="O13">
+        <v>0.6373081767632703</v>
+      </c>
+      <c r="P13">
+        <v>0.6373081767632703</v>
+      </c>
+      <c r="Q13">
+        <v>11.71336371764833</v>
+      </c>
+      <c r="R13">
+        <v>105.420273458835</v>
+      </c>
+      <c r="S13">
+        <v>0.08720738727761433</v>
+      </c>
+      <c r="T13">
+        <v>0.08720738727761433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.631845666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.895537</v>
+      </c>
+      <c r="I14">
+        <v>0.136837075777874</v>
+      </c>
+      <c r="J14">
+        <v>0.136837075777874</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.370797</v>
+      </c>
+      <c r="N14">
+        <v>1.112391</v>
+      </c>
+      <c r="O14">
+        <v>0.03292176843770089</v>
+      </c>
+      <c r="P14">
+        <v>0.03292176843770089</v>
+      </c>
+      <c r="Q14">
+        <v>0.6050834776630001</v>
+      </c>
+      <c r="R14">
+        <v>5.445751298967001</v>
+      </c>
+      <c r="S14">
+        <v>0.004504918522451297</v>
+      </c>
+      <c r="T14">
+        <v>0.004504918522451297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.631845666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.895537</v>
+      </c>
+      <c r="I15">
+        <v>0.136837075777874</v>
+      </c>
+      <c r="J15">
+        <v>0.136837075777874</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>2.512708666666667</v>
+      </c>
+      <c r="N15">
+        <v>7.538126</v>
+      </c>
+      <c r="O15">
+        <v>0.2230946120799363</v>
+      </c>
+      <c r="P15">
+        <v>0.2230946120799363</v>
+      </c>
+      <c r="Q15">
+        <v>4.100352749295778</v>
+      </c>
+      <c r="R15">
+        <v>36.903174743662</v>
+      </c>
+      <c r="S15">
+        <v>0.03052761433881764</v>
+      </c>
+      <c r="T15">
+        <v>0.03052761433881764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.631845666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.895537</v>
+      </c>
+      <c r="I16">
+        <v>0.136837075777874</v>
+      </c>
+      <c r="J16">
+        <v>0.136837075777874</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2803586666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.8410759999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.02489206520954206</v>
+      </c>
+      <c r="P16">
+        <v>0.02489206520954206</v>
+      </c>
+      <c r="Q16">
+        <v>0.4575020753124444</v>
+      </c>
+      <c r="R16">
+        <v>4.117518677812</v>
+      </c>
+      <c r="S16">
+        <v>0.003406157413345888</v>
+      </c>
+      <c r="T16">
+        <v>0.003406157413345888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.673383</v>
+      </c>
+      <c r="H17">
+        <v>11.020149</v>
+      </c>
+      <c r="I17">
+        <v>0.3080285091904039</v>
+      </c>
+      <c r="J17">
+        <v>0.3080285091904039</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.9211239999999999</v>
+      </c>
+      <c r="N17">
+        <v>2.763372</v>
+      </c>
+      <c r="O17">
+        <v>0.08178337750955046</v>
+      </c>
+      <c r="P17">
+        <v>0.08178337750955048</v>
+      </c>
+      <c r="Q17">
+        <v>3.383641242492</v>
+      </c>
+      <c r="R17">
+        <v>30.452771182428</v>
+      </c>
+      <c r="S17">
+        <v>0.02519161185082283</v>
+      </c>
+      <c r="T17">
+        <v>0.02519161185082284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.673383</v>
+      </c>
+      <c r="H18">
+        <v>11.020149</v>
+      </c>
+      <c r="I18">
+        <v>0.3080285091904039</v>
+      </c>
+      <c r="J18">
+        <v>0.3080285091904039</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.177985</v>
+      </c>
+      <c r="N18">
+        <v>21.533955</v>
+      </c>
+      <c r="O18">
+        <v>0.6373081767632703</v>
+      </c>
+      <c r="P18">
+        <v>0.6373081767632703</v>
+      </c>
+      <c r="Q18">
+        <v>26.367488073255</v>
+      </c>
+      <c r="R18">
+        <v>237.307392659295</v>
+      </c>
+      <c r="S18">
+        <v>0.1963090875832446</v>
+      </c>
+      <c r="T18">
+        <v>0.1963090875832446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.673383</v>
+      </c>
+      <c r="H19">
+        <v>11.020149</v>
+      </c>
+      <c r="I19">
+        <v>0.3080285091904039</v>
+      </c>
+      <c r="J19">
+        <v>0.3080285091904039</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.370797</v>
+      </c>
+      <c r="N19">
+        <v>1.112391</v>
+      </c>
+      <c r="O19">
+        <v>0.03292176843770089</v>
+      </c>
+      <c r="P19">
+        <v>0.03292176843770089</v>
+      </c>
+      <c r="Q19">
+        <v>1.362079396251</v>
+      </c>
+      <c r="R19">
+        <v>12.258714566259</v>
+      </c>
+      <c r="S19">
+        <v>0.0101408432517767</v>
+      </c>
+      <c r="T19">
+        <v>0.0101408432517767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.673383</v>
+      </c>
+      <c r="H20">
+        <v>11.020149</v>
+      </c>
+      <c r="I20">
+        <v>0.3080285091904039</v>
+      </c>
+      <c r="J20">
+        <v>0.3080285091904039</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>2.512708666666667</v>
+      </c>
+      <c r="N20">
+        <v>7.538126</v>
+      </c>
+      <c r="O20">
+        <v>0.2230946120799363</v>
+      </c>
+      <c r="P20">
+        <v>0.2230946120799363</v>
+      </c>
+      <c r="Q20">
+        <v>9.230141300086</v>
+      </c>
+      <c r="R20">
+        <v>83.07127170077401</v>
+      </c>
+      <c r="S20">
+        <v>0.06871950076739423</v>
+      </c>
+      <c r="T20">
+        <v>0.06871950076739423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.673383</v>
+      </c>
+      <c r="H21">
+        <v>11.020149</v>
+      </c>
+      <c r="I21">
+        <v>0.3080285091904039</v>
+      </c>
+      <c r="J21">
+        <v>0.3080285091904039</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.2803586666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.8410759999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.02489206520954206</v>
+      </c>
+      <c r="P21">
+        <v>0.02489206520954206</v>
+      </c>
+      <c r="Q21">
+        <v>1.029864760036</v>
+      </c>
+      <c r="R21">
+        <v>9.268782840323999</v>
+      </c>
+      <c r="S21">
+        <v>0.00766746573716556</v>
+      </c>
+      <c r="T21">
+        <v>0.00766746573716556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.129675</v>
+      </c>
+      <c r="H22">
+        <v>0.389025</v>
+      </c>
+      <c r="I22">
+        <v>0.01087379043493848</v>
+      </c>
+      <c r="J22">
+        <v>0.01087379043493848</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.9211239999999999</v>
+      </c>
+      <c r="N22">
+        <v>2.763372</v>
+      </c>
+      <c r="O22">
+        <v>0.08178337750955046</v>
+      </c>
+      <c r="P22">
+        <v>0.08178337750955048</v>
+      </c>
+      <c r="Q22">
+        <v>0.1194467547</v>
+      </c>
+      <c r="R22">
+        <v>1.0750207923</v>
+      </c>
+      <c r="S22">
+        <v>0.0008892953081003129</v>
+      </c>
+      <c r="T22">
+        <v>0.0008892953081003129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.129675</v>
+      </c>
+      <c r="H23">
+        <v>0.389025</v>
+      </c>
+      <c r="I23">
+        <v>0.01087379043493848</v>
+      </c>
+      <c r="J23">
+        <v>0.01087379043493848</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.177985</v>
+      </c>
+      <c r="N23">
+        <v>21.533955</v>
+      </c>
+      <c r="O23">
+        <v>0.6373081767632703</v>
+      </c>
+      <c r="P23">
+        <v>0.6373081767632703</v>
+      </c>
+      <c r="Q23">
+        <v>0.9308052048750001</v>
+      </c>
+      <c r="R23">
+        <v>8.377246843875</v>
+      </c>
+      <c r="S23">
+        <v>0.006929955556596533</v>
+      </c>
+      <c r="T23">
+        <v>0.006929955556596532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.129675</v>
+      </c>
+      <c r="H24">
+        <v>0.389025</v>
+      </c>
+      <c r="I24">
+        <v>0.01087379043493848</v>
+      </c>
+      <c r="J24">
+        <v>0.01087379043493848</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.370797</v>
+      </c>
+      <c r="N24">
+        <v>1.112391</v>
+      </c>
+      <c r="O24">
+        <v>0.03292176843770089</v>
+      </c>
+      <c r="P24">
+        <v>0.03292176843770089</v>
+      </c>
+      <c r="Q24">
+        <v>0.04808310097500001</v>
+      </c>
+      <c r="R24">
+        <v>0.4327479087750001</v>
+      </c>
+      <c r="S24">
+        <v>0.0003579844107391315</v>
+      </c>
+      <c r="T24">
+        <v>0.0003579844107391314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.129675</v>
+      </c>
+      <c r="H25">
+        <v>0.389025</v>
+      </c>
+      <c r="I25">
+        <v>0.01087379043493848</v>
+      </c>
+      <c r="J25">
+        <v>0.01087379043493848</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>2.512708666666667</v>
+      </c>
+      <c r="N25">
+        <v>7.538126</v>
+      </c>
+      <c r="O25">
+        <v>0.2230946120799363</v>
+      </c>
+      <c r="P25">
+        <v>0.2230946120799363</v>
+      </c>
+      <c r="Q25">
+        <v>0.32583549635</v>
+      </c>
+      <c r="R25">
+        <v>2.93251946715</v>
+      </c>
+      <c r="S25">
+        <v>0.002425884058921122</v>
+      </c>
+      <c r="T25">
+        <v>0.002425884058921122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.129675</v>
+      </c>
+      <c r="H26">
+        <v>0.389025</v>
+      </c>
+      <c r="I26">
+        <v>0.01087379043493848</v>
+      </c>
+      <c r="J26">
+        <v>0.01087379043493848</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.2803586666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.8410759999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.02489206520954206</v>
+      </c>
+      <c r="P26">
+        <v>0.02489206520954206</v>
+      </c>
+      <c r="Q26">
+        <v>0.0363555101</v>
+      </c>
+      <c r="R26">
+        <v>0.3271995909</v>
+      </c>
+      <c r="S26">
+        <v>0.0002706711005813834</v>
+      </c>
+      <c r="T26">
+        <v>0.0002706711005813834</v>
       </c>
     </row>
   </sheetData>
